--- a/Inputs_Data_largePlans/28_GA_GA-TRS.xlsx
+++ b/Inputs_Data_largePlans/28_GA_GA-TRS.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\PPD150_Experiment\Inputs_largePlans_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\PPD150_Experiment\Inputs_Data_largePlans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11610" tabRatio="877" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11610" tabRatio="877" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="42" r:id="rId1"/>
@@ -1807,15 +1807,15 @@
     <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6348,12 +6348,12 @@
         <v>749589732</v>
       </c>
       <c r="CB13" s="90"/>
-      <c r="CC13" s="133" t="s">
+      <c r="CC13" s="136" t="s">
         <v>363</v>
       </c>
-      <c r="CD13" s="133"/>
-      <c r="CE13" s="133"/>
-      <c r="CF13" s="133"/>
+      <c r="CD13" s="136"/>
+      <c r="CE13" s="136"/>
+      <c r="CF13" s="136"/>
       <c r="CG13" s="90"/>
     </row>
     <row r="14" spans="1:85" x14ac:dyDescent="0.25">
@@ -6374,14 +6374,14 @@
       </c>
       <c r="E14" s="73"/>
       <c r="CB14" s="90"/>
-      <c r="CC14" s="133" t="s">
+      <c r="CC14" s="136" t="s">
         <v>360</v>
       </c>
-      <c r="CD14" s="133"/>
-      <c r="CE14" s="133" t="s">
+      <c r="CD14" s="136"/>
+      <c r="CE14" s="136" t="s">
         <v>243</v>
       </c>
-      <c r="CF14" s="133"/>
+      <c r="CF14" s="136"/>
       <c r="CG14" s="90"/>
     </row>
     <row r="15" spans="1:85" ht="60" x14ac:dyDescent="0.25">
@@ -7137,14 +7137,14 @@
     <row r="56" spans="1:5" s="74" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58"/>
-      <c r="B58" s="133" t="s">
+      <c r="B58" s="136" t="s">
         <v>241</v>
       </c>
-      <c r="C58" s="133"/>
-      <c r="D58" s="133" t="s">
+      <c r="C58" s="136"/>
+      <c r="D58" s="136" t="s">
         <v>243</v>
       </c>
-      <c r="E58" s="133"/>
+      <c r="E58" s="136"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59"/>
@@ -7686,10 +7686,10 @@
       <c r="D5" s="49"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="136" t="s">
         <v>363</v>
       </c>
-      <c r="C6" s="133"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="49"/>
       <c r="E6" s="103" t="s">
         <v>395</v>
@@ -8017,16 +8017,16 @@
       <c r="C24" s="49"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="133"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="133"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="136"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="136"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="16"/>
@@ -8180,10 +8180,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="90"/>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="136" t="s">
         <v>363</v>
       </c>
-      <c r="C5" s="133"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="107"/>
       <c r="E5" s="107"/>
       <c r="F5" s="107"/>
@@ -11605,8 +11605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11639,10 +11639,10 @@
         <v>423</v>
       </c>
       <c r="C3" s="52"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J4" s="47" t="s">
@@ -15600,14 +15600,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="136"/>
+    <col min="1" max="16384" width="9.140625" style="134"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="135" t="s">
         <v>265</v>
       </c>
     </row>
@@ -16365,11 +16365,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16506,7 +16506,7 @@
         <v>36534777</v>
       </c>
       <c r="G11" s="41">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H11" s="41" t="s">
         <v>257</v>
@@ -16538,7 +16538,7 @@
         <v>55186998</v>
       </c>
       <c r="G12" s="41">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H12" s="41" t="s">
         <v>257</v>
@@ -16568,7 +16568,7 @@
         <v>103485481</v>
       </c>
       <c r="G13" s="41">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H13" s="41" t="s">
         <v>257</v>
@@ -16598,7 +16598,7 @@
         <v>48298483</v>
       </c>
       <c r="G14" s="41">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="41" t="s">
         <v>257</v>
@@ -16630,7 +16630,7 @@
         <v>55186998</v>
       </c>
       <c r="G15" s="41">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="41" t="s">
         <v>257</v>
@@ -16660,7 +16660,7 @@
         <v>11763706</v>
       </c>
       <c r="G16" s="41">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H16" s="41" t="s">
         <v>257</v>
@@ -16692,7 +16692,7 @@
         <v>11271699</v>
       </c>
       <c r="G17" s="41">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="41" t="s">
         <v>257</v>
